--- a/tests/resources/CEILING.xlsx
+++ b/tests/resources/CEILING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradb\Documents\Python\xlcalculator\tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C472A973-7A34-439B-A45D-404484C9FE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A811828A-839E-48A7-ABCE-66F585CE6388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="180" windowWidth="17715" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -400,6 +400,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="e">
+        <f>CEILING(2, -2)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
